--- a/10301_hev_sales.xlsx
+++ b/10301_hev_sales.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="252"/>
   </bookViews>
   <sheets>
     <sheet name="HEV Sales" sheetId="5" r:id="rId1"/>
@@ -292,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1889,7 +1884,6 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1929,6 +1923,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2122,15 +2117,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2190,55 +2182,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,61 +2242,56 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>5562</c:v>
+                  <c:v>5562.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15556</c:v>
+                  <c:v>15556.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20119</c:v>
+                  <c:v>20119.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24600</c:v>
+                  <c:v>24600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53991</c:v>
+                  <c:v>53991.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107897</c:v>
+                  <c:v>107897.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106971</c:v>
+                  <c:v>106971.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>181221</c:v>
+                  <c:v>181221.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158574</c:v>
+                  <c:v>158574.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>139682</c:v>
+                  <c:v>139682.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>140928</c:v>
+                  <c:v>140928.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>136463</c:v>
+                  <c:v>136463.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>164618</c:v>
+                  <c:v>164618.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>145172</c:v>
+                  <c:v>145172.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>122776</c:v>
+                  <c:v>122776.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>113829</c:v>
+                  <c:v>113829.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2328,55 +2315,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2388,43 +2375,38 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="7">
-                  <c:v>31341</c:v>
+                  <c:v>31341.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54477</c:v>
+                  <c:v>54477.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46272</c:v>
+                  <c:v>46272.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>22887</c:v>
+                  <c:v>22887.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>14587</c:v>
+                  <c:v>14587.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>9241</c:v>
+                  <c:v>9241.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>45656</c:v>
+                  <c:v>45656.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>44448</c:v>
+                  <c:v>44448.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39515</c:v>
+                  <c:v>39515.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>30640</c:v>
+                  <c:v>30640.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2448,55 +2430,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,55 +2490,50 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="3">
-                  <c:v>13700</c:v>
+                  <c:v>13700.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21800</c:v>
+                  <c:v>21800.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25571</c:v>
+                  <c:v>25571.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25864</c:v>
+                  <c:v>25864.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31251</c:v>
+                  <c:v>31251.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32575</c:v>
+                  <c:v>32575.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31297</c:v>
+                  <c:v>31297.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>15119</c:v>
+                  <c:v>15119.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7336</c:v>
+                  <c:v>7336.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4703</c:v>
+                  <c:v>4703.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7156</c:v>
+                  <c:v>7156.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7719</c:v>
+                  <c:v>7719.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>5070</c:v>
+                  <c:v>5070.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4887</c:v>
+                  <c:v>4887.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2580,55 +2557,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2640,34 +2617,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>15554</c:v>
+                  <c:v>15554.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>20816</c:v>
+                  <c:v>20816.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>11286</c:v>
+                  <c:v>11286.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>14100</c:v>
+                  <c:v>14100.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>37270</c:v>
+                  <c:v>37270.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>35405</c:v>
+                  <c:v>35405.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>24681</c:v>
+                  <c:v>24681.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2691,55 +2663,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,46 +2723,41 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="6">
-                  <c:v>20674</c:v>
+                  <c:v>20674.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20161</c:v>
+                  <c:v>20161.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17291</c:v>
+                  <c:v>17291.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15200</c:v>
+                  <c:v>15200.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>14464</c:v>
+                  <c:v>14464.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>15119</c:v>
+                  <c:v>15119.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10723</c:v>
+                  <c:v>10723.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>12223</c:v>
+                  <c:v>12223.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>11307</c:v>
+                  <c:v>11307.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>9351</c:v>
+                  <c:v>9351.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7722</c:v>
+                  <c:v>7722.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2814,55 +2781,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,25 +2841,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>30838</c:v>
+                  <c:v>30838.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41979</c:v>
+                  <c:v>41979.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>40570</c:v>
+                  <c:v>40570.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>38484</c:v>
+                  <c:v>38484.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2916,55 +2878,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2976,46 +2938,41 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="6">
-                  <c:v>17989</c:v>
+                  <c:v>17989.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31485</c:v>
+                  <c:v>31485.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22052</c:v>
+                  <c:v>22052.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19441</c:v>
+                  <c:v>19441.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>11086</c:v>
+                  <c:v>11086.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7456</c:v>
+                  <c:v>7456.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4549</c:v>
+                  <c:v>4549.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>5921</c:v>
+                  <c:v>5921.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>5070</c:v>
+                  <c:v>5070.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>3621</c:v>
+                  <c:v>3621.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4015</c:v>
+                  <c:v>4015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -3039,55 +2996,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3099,25 +3056,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>28450</c:v>
+                  <c:v>28450.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>34989</c:v>
+                  <c:v>34989.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>30762</c:v>
+                  <c:v>30762.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>28290</c:v>
+                  <c:v>28290.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -3141,55 +3093,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3201,40 +3153,35 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="5">
-                  <c:v>2993</c:v>
+                  <c:v>2993.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18797</c:v>
+                  <c:v>18797.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20149</c:v>
+                  <c:v>20149.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21386</c:v>
+                  <c:v>21386.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17173</c:v>
+                  <c:v>17173.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>14787</c:v>
+                  <c:v>14787.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>11182</c:v>
+                  <c:v>11182.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10089</c:v>
+                  <c:v>10089.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1440</c:v>
+                  <c:v>1440.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -3258,55 +3205,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3318,28 +3265,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>19673</c:v>
+                  <c:v>19673.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>20754</c:v>
+                  <c:v>20754.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>21559</c:v>
+                  <c:v>21559.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>21052</c:v>
+                  <c:v>21052.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>19908</c:v>
+                  <c:v>19908.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -3363,55 +3305,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,64 +3365,59 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3788</c:v>
+                  <c:v>3788.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4726</c:v>
+                  <c:v>4726.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2216</c:v>
+                  <c:v>2216.0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>583</c:v>
+                  <c:v>583.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>666</c:v>
+                  <c:v>666.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>722</c:v>
+                  <c:v>722.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>20572</c:v>
+                  <c:v>20572.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>20962</c:v>
+                  <c:v>20962.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>15549</c:v>
+                  <c:v>15549.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>5846</c:v>
+                  <c:v>5846.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4802</c:v>
+                  <c:v>4802.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>3562</c:v>
+                  <c:v>3562.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1458</c:v>
+                  <c:v>1458.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -3504,55 +3441,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3564,28 +3501,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>14381</c:v>
+                  <c:v>14381.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>17831</c:v>
+                  <c:v>17831.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>15071</c:v>
+                  <c:v>15071.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>17673</c:v>
+                  <c:v>17673.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>14657</c:v>
+                  <c:v>14657.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -3609,55 +3541,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3669,25 +3601,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10935</c:v>
+                  <c:v>10935.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>28056</c:v>
+                  <c:v>28056.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>19162</c:v>
+                  <c:v>19162.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>14177</c:v>
+                  <c:v>14177.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
@@ -3711,55 +3638,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3771,37 +3698,32 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="5">
-                  <c:v>1061</c:v>
+                  <c:v>1061.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16826</c:v>
+                  <c:v>16826.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5598</c:v>
+                  <c:v>5598.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3405</c:v>
+                  <c:v>3405.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>196</c:v>
+                  <c:v>196.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>996</c:v>
+                  <c:v>996.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>13977</c:v>
+                  <c:v>13977.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>11065</c:v>
+                  <c:v>11065.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -3825,55 +3747,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3885,25 +3807,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7027</c:v>
+                  <c:v>7027.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>16562</c:v>
+                  <c:v>16562.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>14837</c:v>
+                  <c:v>14837.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>11241</c:v>
+                  <c:v>11241.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="16"/>
@@ -3927,55 +3844,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3987,25 +3904,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10245</c:v>
+                  <c:v>10245.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>13919</c:v>
+                  <c:v>13919.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>13776</c:v>
+                  <c:v>13776.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>11492</c:v>
+                  <c:v>11492.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="17"/>
@@ -4029,55 +3941,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4089,25 +4001,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>747</c:v>
+                  <c:v>747.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>16468</c:v>
+                  <c:v>16468.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>17048</c:v>
+                  <c:v>17048.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>11956</c:v>
+                  <c:v>11956.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="18"/>
@@ -4131,55 +4038,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4191,31 +4098,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1192</c:v>
+                  <c:v>1192.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>5739</c:v>
+                  <c:v>5739.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>6067</c:v>
+                  <c:v>6067.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7469</c:v>
+                  <c:v>7469.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10033</c:v>
+                  <c:v>10033.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>8403</c:v>
+                  <c:v>8403.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="19"/>
@@ -4239,55 +4141,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4299,37 +4201,32 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="9">
-                  <c:v>2093</c:v>
+                  <c:v>2093.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4162</c:v>
+                  <c:v>4162.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>405</c:v>
+                  <c:v>405.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>16664</c:v>
+                  <c:v>16664.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>13779</c:v>
+                  <c:v>13779.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1018</c:v>
+                  <c:v>1018.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="20"/>
@@ -4353,55 +4250,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4413,31 +4310,26 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="8">
-                  <c:v>8388</c:v>
+                  <c:v>8388.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8819</c:v>
+                  <c:v>8819.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>9357</c:v>
+                  <c:v>9357.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>6710</c:v>
+                  <c:v>6710.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>3236</c:v>
+                  <c:v>3236.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>103</c:v>
+                  <c:v>103.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="21"/>
@@ -4461,55 +4353,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4521,28 +4413,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1801</c:v>
+                  <c:v>1801.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>12010</c:v>
+                  <c:v>12010.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7133</c:v>
+                  <c:v>7133.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7353</c:v>
+                  <c:v>7353.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4042</c:v>
+                  <c:v>4042.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="22"/>
@@ -4566,55 +4453,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4626,31 +4513,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>5249</c:v>
+                  <c:v>5249.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>11330</c:v>
+                  <c:v>11330.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4192</c:v>
+                  <c:v>4192.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4550</c:v>
+                  <c:v>4550.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>3562</c:v>
+                  <c:v>3562.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>3073</c:v>
+                  <c:v>3073.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="23"/>
@@ -4674,55 +4556,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4734,28 +4616,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>6699</c:v>
+                  <c:v>6699.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10663</c:v>
+                  <c:v>10663.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2864</c:v>
+                  <c:v>2864.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>650</c:v>
+                  <c:v>650.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="24"/>
@@ -4779,55 +4656,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4839,31 +4716,26 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="6">
-                  <c:v>998</c:v>
+                  <c:v>998.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3174</c:v>
+                  <c:v>3174.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3722</c:v>
+                  <c:v>3722.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2329</c:v>
+                  <c:v>2329.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1693</c:v>
+                  <c:v>1693.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>890</c:v>
+                  <c:v>890.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="25"/>
@@ -4887,55 +4759,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4947,25 +4819,20 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="8">
-                  <c:v>4403</c:v>
+                  <c:v>4403.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2920</c:v>
+                  <c:v>2920.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2656</c:v>
+                  <c:v>2656.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="26"/>
@@ -4989,55 +4856,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5049,37 +4916,32 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="9">
-                  <c:v>3745</c:v>
+                  <c:v>3745.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>3300</c:v>
+                  <c:v>3300.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1426</c:v>
+                  <c:v>1426.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>519</c:v>
+                  <c:v>519.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>533</c:v>
+                  <c:v>533.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>376</c:v>
+                  <c:v>376.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="27"/>
@@ -5103,55 +4965,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5163,25 +5025,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>162</c:v>
+                  <c:v>162.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>5655</c:v>
+                  <c:v>5655.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1939</c:v>
+                  <c:v>1939.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>740</c:v>
+                  <c:v>740.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="28"/>
@@ -5205,55 +5062,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5265,22 +5122,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>307</c:v>
+                  <c:v>307.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>3456</c:v>
+                  <c:v>3456.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4012</c:v>
+                  <c:v>4012.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="29"/>
@@ -5304,55 +5156,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5364,43 +5216,38 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="7">
-                  <c:v>1784</c:v>
+                  <c:v>1784.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1645</c:v>
+                  <c:v>1645.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>678</c:v>
+                  <c:v>678.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>469</c:v>
+                  <c:v>469.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>305</c:v>
+                  <c:v>305.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>282</c:v>
+                  <c:v>282.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>615</c:v>
+                  <c:v>615.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>522</c:v>
+                  <c:v>522.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>183</c:v>
+                  <c:v>183.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="30"/>
@@ -5424,55 +5271,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5484,28 +5331,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>123</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2564</c:v>
+                  <c:v>2564.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2893</c:v>
+                  <c:v>2893.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>662</c:v>
+                  <c:v>662.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>186</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="31"/>
@@ -5529,55 +5371,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5589,37 +5431,32 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="9">
-                  <c:v>1610</c:v>
+                  <c:v>1610.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1933</c:v>
+                  <c:v>1933.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1221</c:v>
+                  <c:v>1221.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>598</c:v>
+                  <c:v>598.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>560</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>288</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="32"/>
@@ -5643,55 +5480,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5703,37 +5540,32 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="9">
-                  <c:v>801</c:v>
+                  <c:v>801.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1958</c:v>
+                  <c:v>1958.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1210</c:v>
+                  <c:v>1210.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>819</c:v>
+                  <c:v>819.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>708</c:v>
+                  <c:v>708.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>372</c:v>
+                  <c:v>372.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="33"/>
@@ -5757,55 +5589,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5817,34 +5649,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1598</c:v>
+                  <c:v>1598.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2393</c:v>
+                  <c:v>2393.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1165</c:v>
+                  <c:v>1165.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>471</c:v>
+                  <c:v>471.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>104</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="34"/>
@@ -5868,55 +5695,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5928,16 +5755,11 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>5589</c:v>
+                  <c:v>5589.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="35"/>
@@ -5961,55 +5783,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6021,22 +5843,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>334</c:v>
+                  <c:v>334.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2480</c:v>
+                  <c:v>2480.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2245</c:v>
+                  <c:v>2245.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="36"/>
@@ -6060,55 +5877,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6120,22 +5937,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>676</c:v>
+                  <c:v>676.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1678</c:v>
+                  <c:v>1678.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2356</c:v>
+                  <c:v>2356.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="37"/>
@@ -6159,55 +5971,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6219,28 +6031,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>206</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1571</c:v>
+                  <c:v>1571.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1180</c:v>
+                  <c:v>1180.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>615</c:v>
+                  <c:v>615.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>650</c:v>
+                  <c:v>650.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="38"/>
@@ -6264,55 +6071,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6324,19 +6131,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>354</c:v>
+                  <c:v>354.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2573</c:v>
+                  <c:v>2573.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="39"/>
@@ -6360,55 +6162,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6420,19 +6222,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1468</c:v>
+                  <c:v>1468.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1416</c:v>
+                  <c:v>1416.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="40"/>
@@ -6456,55 +6253,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6516,25 +6313,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>972</c:v>
+                  <c:v>972.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1461</c:v>
+                  <c:v>1461.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>379</c:v>
+                  <c:v>379.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="41"/>
@@ -6558,55 +6350,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6618,40 +6410,35 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="8">
-                  <c:v>937</c:v>
+                  <c:v>937.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>907</c:v>
+                  <c:v>907.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>258</c:v>
+                  <c:v>258.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>129</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>115</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="42"/>
@@ -6675,55 +6462,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6735,28 +6522,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>378</c:v>
+                  <c:v>378.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>691</c:v>
+                  <c:v>691.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>475</c:v>
+                  <c:v>475.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>180</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>176</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="43"/>
@@ -6780,55 +6562,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6840,25 +6622,20 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="8">
-                  <c:v>772</c:v>
+                  <c:v>772.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>285</c:v>
+                  <c:v>285.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>527</c:v>
+                  <c:v>527.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="44"/>
@@ -6882,55 +6659,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6942,25 +6719,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>270</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>854</c:v>
+                  <c:v>854.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>283</c:v>
+                  <c:v>283.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>97</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="45"/>
@@ -6984,55 +6756,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7044,16 +6816,11 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1494</c:v>
+                  <c:v>1494.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="46"/>
@@ -7077,55 +6844,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7137,25 +6904,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>402</c:v>
+                  <c:v>402.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>905</c:v>
+                  <c:v>905.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>151</c:v>
+                  <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="47"/>
@@ -7179,55 +6941,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7239,31 +7001,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>801</c:v>
+                  <c:v>801.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>309</c:v>
+                  <c:v>309.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="48"/>
@@ -7287,55 +7044,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7347,22 +7104,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>570</c:v>
+                  <c:v>570.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>484</c:v>
+                  <c:v>484.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="49"/>
@@ -7386,55 +7138,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7446,25 +7198,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>403</c:v>
+                  <c:v>403.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>520</c:v>
+                  <c:v>520.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>112</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="50"/>
@@ -7488,55 +7235,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7548,22 +7295,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>565</c:v>
+                  <c:v>565.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>272</c:v>
+                  <c:v>272.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000031-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="51"/>
@@ -7587,55 +7329,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7647,28 +7389,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>390</c:v>
+                  <c:v>390.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>118</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000032-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="52"/>
@@ -7692,55 +7429,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7752,31 +7489,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>102</c:v>
+                  <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>338</c:v>
+                  <c:v>338.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>230</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000033-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="53"/>
@@ -7800,55 +7532,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7860,22 +7592,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>570</c:v>
+                  <c:v>570.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>113</c:v>
+                  <c:v>113.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000034-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="54"/>
@@ -7899,55 +7626,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7959,31 +7686,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>627</c:v>
+                  <c:v>627.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000035-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="55"/>
@@ -8007,55 +7729,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8067,22 +7789,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>282</c:v>
+                  <c:v>282.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>158</c:v>
+                  <c:v>158.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000036-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="56"/>
@@ -8106,55 +7823,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8166,19 +7883,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000037-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="57"/>
@@ -8202,55 +7914,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8262,22 +7974,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>205</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000038-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="58"/>
@@ -8301,55 +8008,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8361,19 +8068,14 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="9">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000039-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="59"/>
@@ -8397,55 +8099,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8457,22 +8159,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003A-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="60"/>
@@ -8496,55 +8193,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8556,16 +8253,11 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003B-D1D1-4AD4-BA96-68CA28045793}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8602,7 +8294,7 @@
         <c:axId val="-2125726728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="500000"/>
+          <c:max val="500000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8621,8 +8313,8 @@
               <c:manualLayout>
                 <c:xMode val="edge"/>
                 <c:yMode val="edge"/>
-                <c:x val="1.194743130227E-2"/>
-                <c:y val="0.38979609986768199"/>
+                <c:x val="0.01194743130227"/>
+                <c:y val="0.389796099867682"/>
               </c:manualLayout>
             </c:layout>
             <c:tx>
@@ -9285,61 +8977,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
+      <selection pane="bottomRight" activeCell="O51" sqref="O51:Q51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="10" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="8.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="18" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="8.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="10.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:21" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="163"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="162"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="92" t="s">
@@ -9400,7 +9092,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="12">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="95" t="s">
@@ -9459,7 +9151,7 @@
         <v>1637959</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="12">
       <c r="A5" s="3"/>
       <c r="B5" s="6"/>
       <c r="C5" s="95" t="s">
@@ -9506,7 +9198,7 @@
         <v>339064</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="12">
       <c r="A6" s="3"/>
       <c r="B6" s="6"/>
       <c r="C6" s="95" t="s">
@@ -9561,7 +9253,7 @@
         <v>234048</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="12">
       <c r="A7" s="3"/>
       <c r="B7" s="6"/>
       <c r="C7" s="93" t="s">
@@ -9602,7 +9294,7 @@
         <v>159112</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="18" customFormat="1" ht="12">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="95" t="s">
@@ -9651,7 +9343,7 @@
         <v>154235</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12">
       <c r="A9" s="3"/>
       <c r="B9" s="6"/>
       <c r="C9" s="93" t="s">
@@ -9686,7 +9378,7 @@
         <v>151871</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="12">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="95" t="s">
@@ -9735,7 +9427,7 @@
         <v>132685</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="18" customFormat="1" ht="12">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="98" t="s">
@@ -9770,7 +9462,7 @@
         <v>122491</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="12">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
       <c r="C12" s="95" t="s">
@@ -9815,7 +9507,7 @@
         <v>117996</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="12">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="93" t="s">
@@ -9852,7 +9544,7 @@
         <v>102946</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="12">
       <c r="A14" s="3"/>
       <c r="B14" s="6"/>
       <c r="C14" s="96" t="s">
@@ -9913,7 +9605,7 @@
         <v>86669</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="18" customFormat="1" ht="12">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="93" t="s">
@@ -9950,7 +9642,7 @@
         <v>79613</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="12">
       <c r="A16" s="3"/>
       <c r="B16" s="6"/>
       <c r="C16" s="93" t="s">
@@ -9985,7 +9677,7 @@
         <v>72330</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="12">
       <c r="A17" s="3"/>
       <c r="B17" s="6"/>
       <c r="C17" s="95" t="s">
@@ -10028,7 +9720,7 @@
         <v>53124</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="12">
       <c r="A18" s="3"/>
       <c r="B18" s="6"/>
       <c r="C18" s="93" t="s">
@@ -10063,7 +9755,7 @@
         <v>49667</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="12">
       <c r="A19" s="3"/>
       <c r="B19" s="6"/>
       <c r="C19" s="93" t="s">
@@ -10098,7 +9790,7 @@
         <v>49432</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="12">
       <c r="A20" s="3"/>
       <c r="B20" s="6"/>
       <c r="C20" s="93" t="s">
@@ -10133,7 +9825,7 @@
         <v>46219</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="12">
       <c r="A21" s="3"/>
       <c r="B21" s="6"/>
       <c r="C21" s="93" t="s">
@@ -10172,7 +9864,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="12">
       <c r="C22" s="93" t="s">
         <v>27</v>
       </c>
@@ -10213,7 +9905,7 @@
         <v>38204</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="12">
       <c r="C23" s="95" t="s">
         <v>6</v>
       </c>
@@ -10250,7 +9942,7 @@
         <v>36613</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="12">
       <c r="C24" s="93" t="s">
         <v>51</v>
       </c>
@@ -10285,7 +9977,7 @@
         <v>32339</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="18" customFormat="1" ht="12">
       <c r="C25" s="93" t="s">
         <v>41</v>
       </c>
@@ -10322,7 +10014,7 @@
         <v>31956</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="12">
       <c r="C26" s="95" t="s">
         <v>35</v>
       </c>
@@ -10357,7 +10049,7 @@
         <v>20880</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="12">
       <c r="C27" s="95" t="s">
         <v>23</v>
       </c>
@@ -10394,7 +10086,7 @@
         <v>12806</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="12">
       <c r="C28" s="95" t="s">
         <v>24</v>
       </c>
@@ -10427,7 +10119,7 @@
         <v>10029</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="12">
       <c r="C29" s="93" t="s">
         <v>28</v>
       </c>
@@ -10468,7 +10160,7 @@
         <v>9972</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="12">
       <c r="C30" s="93" t="s">
         <v>61</v>
       </c>
@@ -10501,7 +10193,7 @@
         <v>8496</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="12">
       <c r="C31" s="93" t="s">
         <v>69</v>
       </c>
@@ -10532,7 +10224,7 @@
         <v>7775</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="12">
       <c r="C32" s="95" t="s">
         <v>4</v>
       </c>
@@ -10577,7 +10269,7 @@
         <v>6574</v>
       </c>
     </row>
-    <row r="33" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" ht="12">
       <c r="C33" s="93" t="s">
         <v>49</v>
       </c>
@@ -10612,7 +10304,7 @@
         <v>6428</v>
       </c>
     </row>
-    <row r="34" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" ht="12">
       <c r="B34" s="3"/>
       <c r="C34" s="93" t="s">
         <v>29</v>
@@ -10654,7 +10346,7 @@
         <v>6251</v>
       </c>
     </row>
-    <row r="35" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" ht="12">
       <c r="B35" s="3"/>
       <c r="C35" s="93" t="s">
         <v>30</v>
@@ -10696,7 +10388,7 @@
         <v>5916</v>
       </c>
     </row>
-    <row r="36" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" ht="12">
       <c r="B36" s="3"/>
       <c r="C36" s="94" t="s">
         <v>62</v>
@@ -10736,7 +10428,7 @@
         <v>5757</v>
       </c>
     </row>
-    <row r="37" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" ht="12">
       <c r="B37" s="3"/>
       <c r="C37" s="98" t="s">
         <v>77</v>
@@ -10764,7 +10456,7 @@
         <v>5589</v>
       </c>
     </row>
-    <row r="38" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" ht="12">
       <c r="B38" s="3"/>
       <c r="C38" s="93" t="s">
         <v>71</v>
@@ -10796,7 +10488,7 @@
         <v>5059</v>
       </c>
     </row>
-    <row r="39" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" ht="12">
       <c r="B39" s="3"/>
       <c r="C39" s="93" t="s">
         <v>70</v>
@@ -10828,7 +10520,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="40" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" ht="12">
       <c r="B40" s="3"/>
       <c r="C40" s="93" t="s">
         <v>46</v>
@@ -10864,7 +10556,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="41" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" ht="12">
       <c r="B41" s="3"/>
       <c r="C41" s="94" t="s">
         <v>76</v>
@@ -10894,7 +10586,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="42" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" ht="12">
       <c r="B42" s="3"/>
       <c r="C42" s="93" t="s">
         <v>43</v>
@@ -10924,7 +10616,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="43" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" ht="12">
       <c r="B43" s="3"/>
       <c r="C43" s="93" t="s">
         <v>53</v>
@@ -10958,7 +10650,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="44" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" ht="12">
       <c r="B44" s="3"/>
       <c r="C44" s="95" t="s">
         <v>18</v>
@@ -11002,7 +10694,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="45" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" ht="12">
       <c r="B45" s="3"/>
       <c r="C45" s="93" t="s">
         <v>52</v>
@@ -11038,7 +10730,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" ht="12">
       <c r="B46" s="3"/>
       <c r="C46" s="95" t="s">
         <v>19</v>
@@ -11072,7 +10764,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="47" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" ht="12">
       <c r="C47" s="93" t="s">
         <v>54</v>
       </c>
@@ -11105,7 +10797,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="48" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" ht="12">
       <c r="B48" s="3"/>
       <c r="C48" s="97" t="s">
         <v>78</v>
@@ -11133,7 +10825,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="12">
       <c r="B49" s="3"/>
       <c r="C49" s="93" t="s">
         <v>55</v>
@@ -11167,7 +10859,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" ht="12">
       <c r="B50" s="3"/>
       <c r="C50" s="93" t="s">
         <v>45</v>
@@ -11205,7 +10897,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="12">
       <c r="C51" s="93" t="s">
         <v>42</v>
       </c>
@@ -11236,7 +10928,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" ht="12">
       <c r="C52" s="93" t="s">
         <v>56</v>
       </c>
@@ -11269,7 +10961,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" ht="12">
       <c r="C53" s="93" t="s">
         <v>66</v>
       </c>
@@ -11300,7 +10992,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="12">
       <c r="B54" s="3"/>
       <c r="C54" s="93" t="s">
         <v>50</v>
@@ -11336,7 +11028,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="12">
       <c r="B55" s="3"/>
       <c r="C55" s="93" t="s">
         <v>38</v>
@@ -11374,7 +11066,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="12">
       <c r="B56" s="3"/>
       <c r="C56" s="97" t="s">
         <v>65</v>
@@ -11406,7 +11098,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" ht="12">
       <c r="B57" s="3"/>
       <c r="C57" s="97" t="s">
         <v>73</v>
@@ -11444,7 +11136,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" ht="12">
       <c r="B58" s="3"/>
       <c r="C58" s="93" t="s">
         <v>68</v>
@@ -11476,7 +11168,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" ht="12">
       <c r="B59" s="3"/>
       <c r="C59" s="94" t="s">
         <v>75</v>
@@ -11506,7 +11198,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" ht="12">
       <c r="B60" s="3"/>
       <c r="C60" s="93" t="s">
         <v>39</v>
@@ -11538,7 +11230,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" ht="12">
       <c r="B61" s="3"/>
       <c r="C61" s="93" t="s">
         <v>31</v>
@@ -11568,7 +11260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" ht="12">
       <c r="B62" s="3"/>
       <c r="C62" s="93" t="s">
         <v>67</v>
@@ -11600,7 +11292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="13" thickBot="1">
       <c r="C63" s="71" t="s">
         <v>33</v>
       </c>
@@ -11627,7 +11319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="14" thickTop="1" thickBot="1">
       <c r="A64" s="3"/>
       <c r="B64" s="6"/>
       <c r="C64" s="99" t="s">
@@ -11688,10 +11380,10 @@
         <v>3915883</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="12">
       <c r="C65" s="45"/>
     </row>
-    <row r="66" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="12">
       <c r="C66" s="6"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -11709,354 +11401,354 @@
       <c r="Q66" s="21"/>
       <c r="R66" s="21"/>
     </row>
-    <row r="67" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="12">
       <c r="A67" s="3"/>
-      <c r="B67" s="171" t="s">
+      <c r="B67" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="172"/>
-      <c r="D67" s="172"/>
-      <c r="E67" s="172"/>
-      <c r="F67" s="165"/>
-      <c r="G67" s="165"/>
-      <c r="H67" s="165"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="165"/>
-      <c r="K67" s="165"/>
-      <c r="L67" s="165"/>
-      <c r="M67" s="165"/>
-      <c r="N67" s="165"/>
-      <c r="O67" s="165"/>
-      <c r="P67" s="165"/>
-      <c r="Q67" s="165"/>
+      <c r="C67" s="171"/>
+      <c r="D67" s="171"/>
+      <c r="E67" s="171"/>
+      <c r="F67" s="164"/>
+      <c r="G67" s="164"/>
+      <c r="H67" s="164"/>
+      <c r="I67" s="164"/>
+      <c r="J67" s="164"/>
+      <c r="K67" s="164"/>
+      <c r="L67" s="164"/>
+      <c r="M67" s="164"/>
+      <c r="N67" s="164"/>
+      <c r="O67" s="164"/>
+      <c r="P67" s="164"/>
+      <c r="Q67" s="164"/>
       <c r="R67" s="56"/>
       <c r="S67" s="16"/>
     </row>
-    <row r="68" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="12">
       <c r="A68" s="3"/>
       <c r="B68" s="11"/>
-      <c r="C68" s="158" t="s">
+      <c r="C68" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="158"/>
-      <c r="E68" s="158"/>
-      <c r="F68" s="158"/>
-      <c r="G68" s="158"/>
-      <c r="H68" s="158"/>
-      <c r="I68" s="158"/>
-      <c r="J68" s="158"/>
-      <c r="K68" s="158"/>
-      <c r="L68" s="158"/>
-      <c r="M68" s="158"/>
-      <c r="N68" s="158"/>
-      <c r="O68" s="158"/>
-      <c r="P68" s="158"/>
-      <c r="Q68" s="158"/>
+      <c r="D68" s="173"/>
+      <c r="E68" s="173"/>
+      <c r="F68" s="173"/>
+      <c r="G68" s="173"/>
+      <c r="H68" s="173"/>
+      <c r="I68" s="173"/>
+      <c r="J68" s="173"/>
+      <c r="K68" s="173"/>
+      <c r="L68" s="173"/>
+      <c r="M68" s="173"/>
+      <c r="N68" s="173"/>
+      <c r="O68" s="173"/>
+      <c r="P68" s="173"/>
+      <c r="Q68" s="173"/>
       <c r="R68" s="58"/>
       <c r="S68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="12">
       <c r="B69" s="13"/>
-      <c r="C69" s="159" t="s">
+      <c r="C69" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="173"/>
-      <c r="E69" s="173"/>
-      <c r="F69" s="173"/>
-      <c r="G69" s="173"/>
-      <c r="H69" s="173"/>
-      <c r="I69" s="173"/>
-      <c r="J69" s="173"/>
-      <c r="K69" s="173"/>
-      <c r="L69" s="173"/>
-      <c r="M69" s="173"/>
-      <c r="N69" s="173"/>
-      <c r="O69" s="173"/>
-      <c r="P69" s="173"/>
-      <c r="Q69" s="173"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="172"/>
+      <c r="F69" s="172"/>
+      <c r="G69" s="172"/>
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
+      <c r="J69" s="172"/>
+      <c r="K69" s="172"/>
+      <c r="L69" s="172"/>
+      <c r="M69" s="172"/>
+      <c r="N69" s="172"/>
+      <c r="O69" s="172"/>
+      <c r="P69" s="172"/>
+      <c r="Q69" s="172"/>
       <c r="R69" s="57"/>
     </row>
-    <row r="70" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="12">
       <c r="B70" s="12"/>
-      <c r="C70" s="160" t="s">
+      <c r="C70" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="160"/>
-      <c r="E70" s="160"/>
-      <c r="F70" s="160"/>
-      <c r="G70" s="160"/>
-      <c r="H70" s="160"/>
-      <c r="I70" s="160"/>
-      <c r="J70" s="160"/>
-      <c r="K70" s="160"/>
-      <c r="L70" s="160"/>
-      <c r="M70" s="160"/>
-      <c r="N70" s="160"/>
-      <c r="O70" s="160"/>
-      <c r="P70" s="160"/>
-      <c r="Q70" s="160"/>
+      <c r="D70" s="159"/>
+      <c r="E70" s="159"/>
+      <c r="F70" s="159"/>
+      <c r="G70" s="159"/>
+      <c r="H70" s="159"/>
+      <c r="I70" s="159"/>
+      <c r="J70" s="159"/>
+      <c r="K70" s="159"/>
+      <c r="L70" s="159"/>
+      <c r="M70" s="159"/>
+      <c r="N70" s="159"/>
+      <c r="O70" s="159"/>
+      <c r="P70" s="159"/>
+      <c r="Q70" s="159"/>
       <c r="R70" s="55"/>
     </row>
-    <row r="71" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="12">
       <c r="A71" s="3"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="160" t="s">
+      <c r="C71" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="160"/>
-      <c r="E71" s="160"/>
-      <c r="F71" s="160"/>
-      <c r="G71" s="160"/>
-      <c r="H71" s="160"/>
-      <c r="I71" s="160"/>
-      <c r="J71" s="160"/>
-      <c r="K71" s="160"/>
-      <c r="L71" s="160"/>
-      <c r="M71" s="160"/>
-      <c r="N71" s="160"/>
-      <c r="O71" s="160"/>
-      <c r="P71" s="160"/>
-      <c r="Q71" s="160"/>
+      <c r="D71" s="159"/>
+      <c r="E71" s="159"/>
+      <c r="F71" s="159"/>
+      <c r="G71" s="159"/>
+      <c r="H71" s="159"/>
+      <c r="I71" s="159"/>
+      <c r="J71" s="159"/>
+      <c r="K71" s="159"/>
+      <c r="L71" s="159"/>
+      <c r="M71" s="159"/>
+      <c r="N71" s="159"/>
+      <c r="O71" s="159"/>
+      <c r="P71" s="159"/>
+      <c r="Q71" s="159"/>
       <c r="R71" s="55"/>
       <c r="S71" s="16"/>
     </row>
-    <row r="72" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="12">
       <c r="A72" s="3"/>
       <c r="B72" s="10"/>
-      <c r="C72" s="159" t="s">
+      <c r="C72" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="160"/>
-      <c r="E72" s="160"/>
-      <c r="F72" s="160"/>
-      <c r="G72" s="160"/>
-      <c r="H72" s="160"/>
-      <c r="I72" s="160"/>
-      <c r="J72" s="160"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="160"/>
-      <c r="M72" s="160"/>
-      <c r="N72" s="160"/>
-      <c r="O72" s="160"/>
-      <c r="P72" s="160"/>
-      <c r="Q72" s="160"/>
+      <c r="D72" s="159"/>
+      <c r="E72" s="159"/>
+      <c r="F72" s="159"/>
+      <c r="G72" s="159"/>
+      <c r="H72" s="159"/>
+      <c r="I72" s="159"/>
+      <c r="J72" s="159"/>
+      <c r="K72" s="159"/>
+      <c r="L72" s="159"/>
+      <c r="M72" s="159"/>
+      <c r="N72" s="159"/>
+      <c r="O72" s="159"/>
+      <c r="P72" s="159"/>
+      <c r="Q72" s="159"/>
       <c r="R72" s="55"/>
       <c r="S72" s="16"/>
     </row>
-    <row r="73" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="12">
       <c r="A73" s="3"/>
       <c r="B73" s="9"/>
-      <c r="C73" s="159" t="s">
+      <c r="C73" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="160"/>
-      <c r="E73" s="160"/>
-      <c r="F73" s="160"/>
-      <c r="G73" s="160"/>
-      <c r="H73" s="160"/>
-      <c r="I73" s="160"/>
-      <c r="J73" s="160"/>
-      <c r="K73" s="160"/>
-      <c r="L73" s="160"/>
-      <c r="M73" s="160"/>
-      <c r="N73" s="160"/>
-      <c r="O73" s="160"/>
-      <c r="P73" s="160"/>
-      <c r="Q73" s="160"/>
+      <c r="D73" s="159"/>
+      <c r="E73" s="159"/>
+      <c r="F73" s="159"/>
+      <c r="G73" s="159"/>
+      <c r="H73" s="159"/>
+      <c r="I73" s="159"/>
+      <c r="J73" s="159"/>
+      <c r="K73" s="159"/>
+      <c r="L73" s="159"/>
+      <c r="M73" s="159"/>
+      <c r="N73" s="159"/>
+      <c r="O73" s="159"/>
+      <c r="P73" s="159"/>
+      <c r="Q73" s="159"/>
       <c r="R73" s="55"/>
       <c r="S73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="12">
       <c r="A74" s="3"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="160" t="s">
+      <c r="C74" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="160"/>
-      <c r="E74" s="160"/>
-      <c r="F74" s="160"/>
-      <c r="G74" s="160"/>
-      <c r="H74" s="160"/>
-      <c r="I74" s="160"/>
-      <c r="J74" s="160"/>
-      <c r="K74" s="160"/>
-      <c r="L74" s="160"/>
-      <c r="M74" s="160"/>
-      <c r="N74" s="160"/>
-      <c r="O74" s="160"/>
-      <c r="P74" s="160"/>
-      <c r="Q74" s="160"/>
+      <c r="D74" s="159"/>
+      <c r="E74" s="159"/>
+      <c r="F74" s="159"/>
+      <c r="G74" s="159"/>
+      <c r="H74" s="159"/>
+      <c r="I74" s="159"/>
+      <c r="J74" s="159"/>
+      <c r="K74" s="159"/>
+      <c r="L74" s="159"/>
+      <c r="M74" s="159"/>
+      <c r="N74" s="159"/>
+      <c r="O74" s="159"/>
+      <c r="P74" s="159"/>
+      <c r="Q74" s="159"/>
       <c r="R74" s="55"/>
       <c r="S74" s="16"/>
     </row>
-    <row r="75" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="12">
       <c r="A75" s="3"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="166" t="s">
+      <c r="C75" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="166"/>
-      <c r="E75" s="166"/>
-      <c r="F75" s="166"/>
-      <c r="G75" s="166"/>
-      <c r="H75" s="166"/>
-      <c r="I75" s="166"/>
-      <c r="J75" s="166"/>
-      <c r="K75" s="166"/>
-      <c r="L75" s="166"/>
-      <c r="M75" s="166"/>
-      <c r="N75" s="166"/>
-      <c r="O75" s="166"/>
-      <c r="P75" s="166"/>
-      <c r="Q75" s="166"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="165"/>
+      <c r="G75" s="165"/>
+      <c r="H75" s="165"/>
+      <c r="I75" s="165"/>
+      <c r="J75" s="165"/>
+      <c r="K75" s="165"/>
+      <c r="L75" s="165"/>
+      <c r="M75" s="165"/>
+      <c r="N75" s="165"/>
+      <c r="O75" s="165"/>
+      <c r="P75" s="165"/>
+      <c r="Q75" s="165"/>
       <c r="R75" s="59"/>
     </row>
-    <row r="76" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C76" s="167"/>
-      <c r="D76" s="168"/>
-      <c r="E76" s="168"/>
-      <c r="F76" s="168"/>
-      <c r="G76" s="168"/>
-      <c r="H76" s="168"/>
-      <c r="I76" s="168"/>
-      <c r="J76" s="168"/>
-      <c r="K76" s="168"/>
-      <c r="L76" s="168"/>
-      <c r="M76" s="168"/>
-      <c r="N76" s="168"/>
-      <c r="O76" s="168"/>
-      <c r="P76" s="168"/>
-      <c r="Q76" s="168"/>
+    <row r="76" spans="1:19" ht="12">
+      <c r="C76" s="166"/>
+      <c r="D76" s="167"/>
+      <c r="E76" s="167"/>
+      <c r="F76" s="167"/>
+      <c r="G76" s="167"/>
+      <c r="H76" s="167"/>
+      <c r="I76" s="167"/>
+      <c r="J76" s="167"/>
+      <c r="K76" s="167"/>
+      <c r="L76" s="167"/>
+      <c r="M76" s="167"/>
+      <c r="N76" s="167"/>
+      <c r="O76" s="167"/>
+      <c r="P76" s="167"/>
+      <c r="Q76" s="167"/>
       <c r="R76" s="60"/>
     </row>
-    <row r="77" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B77" s="169" t="s">
+    <row r="77" spans="1:19" ht="12">
+      <c r="B77" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="165"/>
-      <c r="D77" s="165"/>
-      <c r="E77" s="165"/>
-      <c r="F77" s="165"/>
-      <c r="G77" s="165"/>
-      <c r="H77" s="165"/>
-      <c r="I77" s="165"/>
-      <c r="J77" s="165"/>
-      <c r="K77" s="165"/>
-      <c r="L77" s="165"/>
-      <c r="M77" s="165"/>
-      <c r="N77" s="165"/>
-      <c r="O77" s="165"/>
-      <c r="P77" s="165"/>
-      <c r="Q77" s="165"/>
+      <c r="C77" s="164"/>
+      <c r="D77" s="164"/>
+      <c r="E77" s="164"/>
+      <c r="F77" s="164"/>
+      <c r="G77" s="164"/>
+      <c r="H77" s="164"/>
+      <c r="I77" s="164"/>
+      <c r="J77" s="164"/>
+      <c r="K77" s="164"/>
+      <c r="L77" s="164"/>
+      <c r="M77" s="164"/>
+      <c r="N77" s="164"/>
+      <c r="O77" s="164"/>
+      <c r="P77" s="164"/>
+      <c r="Q77" s="164"/>
       <c r="R77" s="56"/>
     </row>
-    <row r="78" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="164" t="s">
+    <row r="78" spans="1:19" ht="25.5" customHeight="1">
+      <c r="B78" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="165"/>
-      <c r="D78" s="165"/>
-      <c r="E78" s="165"/>
-      <c r="F78" s="165"/>
-      <c r="G78" s="165"/>
-      <c r="H78" s="165"/>
-      <c r="I78" s="165"/>
-      <c r="J78" s="165"/>
-      <c r="K78" s="165"/>
-      <c r="L78" s="165"/>
-      <c r="M78" s="165"/>
-      <c r="N78" s="165"/>
-      <c r="O78" s="165"/>
-      <c r="P78" s="165"/>
-      <c r="Q78" s="165"/>
+      <c r="C78" s="164"/>
+      <c r="D78" s="164"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="164"/>
+      <c r="G78" s="164"/>
+      <c r="H78" s="164"/>
+      <c r="I78" s="164"/>
+      <c r="J78" s="164"/>
+      <c r="K78" s="164"/>
+      <c r="L78" s="164"/>
+      <c r="M78" s="164"/>
+      <c r="N78" s="164"/>
+      <c r="O78" s="164"/>
+      <c r="P78" s="164"/>
+      <c r="Q78" s="164"/>
       <c r="R78" s="56"/>
     </row>
-    <row r="79" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B79" s="164" t="s">
+    <row r="79" spans="1:19" ht="12">
+      <c r="B79" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="165"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="165"/>
-      <c r="F79" s="165"/>
-      <c r="G79" s="165"/>
-      <c r="H79" s="165"/>
-      <c r="I79" s="165"/>
-      <c r="J79" s="165"/>
-      <c r="K79" s="165"/>
-      <c r="L79" s="165"/>
-      <c r="M79" s="165"/>
-      <c r="N79" s="165"/>
-      <c r="O79" s="165"/>
-      <c r="P79" s="165"/>
-      <c r="Q79" s="165"/>
+      <c r="C79" s="164"/>
+      <c r="D79" s="164"/>
+      <c r="E79" s="164"/>
+      <c r="F79" s="164"/>
+      <c r="G79" s="164"/>
+      <c r="H79" s="164"/>
+      <c r="I79" s="164"/>
+      <c r="J79" s="164"/>
+      <c r="K79" s="164"/>
+      <c r="L79" s="164"/>
+      <c r="M79" s="164"/>
+      <c r="N79" s="164"/>
+      <c r="O79" s="164"/>
+      <c r="P79" s="164"/>
+      <c r="Q79" s="164"/>
       <c r="R79" s="56"/>
     </row>
-    <row r="80" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="170" t="s">
+    <row r="80" spans="1:19" ht="12">
+      <c r="B80" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="170"/>
-      <c r="F80" s="170"/>
-      <c r="G80" s="170"/>
-      <c r="H80" s="170"/>
-      <c r="I80" s="170"/>
-      <c r="J80" s="170"/>
-      <c r="K80" s="170"/>
-      <c r="L80" s="170"/>
-      <c r="M80" s="170"/>
-      <c r="N80" s="170"/>
-      <c r="O80" s="170"/>
-      <c r="P80" s="170"/>
-      <c r="Q80" s="170"/>
-      <c r="R80" s="170"/>
-      <c r="S80" s="170"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="169"/>
+      <c r="F80" s="169"/>
+      <c r="G80" s="169"/>
+      <c r="H80" s="169"/>
+      <c r="I80" s="169"/>
+      <c r="J80" s="169"/>
+      <c r="K80" s="169"/>
+      <c r="L80" s="169"/>
+      <c r="M80" s="169"/>
+      <c r="N80" s="169"/>
+      <c r="O80" s="169"/>
+      <c r="P80" s="169"/>
+      <c r="Q80" s="169"/>
+      <c r="R80" s="169"/>
+      <c r="S80" s="169"/>
     </row>
-    <row r="81" spans="2:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="164" t="s">
+    <row r="81" spans="2:18" ht="25.5" customHeight="1">
+      <c r="B81" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="C81" s="165"/>
-      <c r="D81" s="165"/>
-      <c r="E81" s="165"/>
-      <c r="F81" s="165"/>
-      <c r="G81" s="165"/>
-      <c r="H81" s="165"/>
-      <c r="I81" s="165"/>
-      <c r="J81" s="165"/>
-      <c r="K81" s="165"/>
-      <c r="L81" s="165"/>
-      <c r="M81" s="165"/>
-      <c r="N81" s="165"/>
-      <c r="O81" s="165"/>
-      <c r="P81" s="165"/>
-      <c r="Q81" s="165"/>
+      <c r="C81" s="164"/>
+      <c r="D81" s="164"/>
+      <c r="E81" s="164"/>
+      <c r="F81" s="164"/>
+      <c r="G81" s="164"/>
+      <c r="H81" s="164"/>
+      <c r="I81" s="164"/>
+      <c r="J81" s="164"/>
+      <c r="K81" s="164"/>
+      <c r="L81" s="164"/>
+      <c r="M81" s="164"/>
+      <c r="N81" s="164"/>
+      <c r="O81" s="164"/>
+      <c r="P81" s="164"/>
+      <c r="Q81" s="164"/>
       <c r="R81" s="56"/>
     </row>
-    <row r="82" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B82" s="164" t="s">
+    <row r="82" spans="2:18" ht="12">
+      <c r="B82" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="165"/>
-      <c r="D82" s="165"/>
-      <c r="E82" s="165"/>
-      <c r="F82" s="165"/>
-      <c r="G82" s="165"/>
-      <c r="H82" s="165"/>
-      <c r="I82" s="165"/>
-      <c r="J82" s="165"/>
-      <c r="K82" s="165"/>
-      <c r="L82" s="165"/>
-      <c r="M82" s="165"/>
-      <c r="N82" s="165"/>
-      <c r="O82" s="165"/>
-      <c r="P82" s="165"/>
-      <c r="Q82" s="165"/>
+      <c r="C82" s="164"/>
+      <c r="D82" s="164"/>
+      <c r="E82" s="164"/>
+      <c r="F82" s="164"/>
+      <c r="G82" s="164"/>
+      <c r="H82" s="164"/>
+      <c r="I82" s="164"/>
+      <c r="J82" s="164"/>
+      <c r="K82" s="164"/>
+      <c r="L82" s="164"/>
+      <c r="M82" s="164"/>
+      <c r="N82" s="164"/>
+      <c r="O82" s="164"/>
+      <c r="P82" s="164"/>
+      <c r="Q82" s="164"/>
       <c r="R82" s="56"/>
     </row>
-    <row r="83" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:18" ht="12">
       <c r="B83" s="44" t="s">
         <v>63</v>
       </c>
@@ -12076,7 +11768,7 @@
       <c r="Q83" s="19"/>
       <c r="R83" s="56"/>
     </row>
-    <row r="84" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:18" ht="12">
       <c r="B84" s="70" t="s">
         <v>81</v>
       </c>
@@ -12096,40 +11788,40 @@
       <c r="Q84" s="19"/>
       <c r="R84" s="56"/>
     </row>
-    <row r="87" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:18" ht="12">
       <c r="C87" s="15"/>
     </row>
-    <row r="88" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:18" ht="12">
       <c r="C88" s="15"/>
     </row>
-    <row r="89" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:18" ht="12">
       <c r="C89" s="15"/>
     </row>
-    <row r="90" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:18" ht="12">
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:18" ht="12">
       <c r="C91" s="15"/>
     </row>
-    <row r="92" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:18" ht="12">
       <c r="C92" s="15"/>
     </row>
-    <row r="93" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:18" ht="12">
       <c r="C93" s="15"/>
     </row>
-    <row r="94" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:18" ht="12">
       <c r="C94" s="15"/>
     </row>
-    <row r="95" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:18" ht="12">
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:18" ht="12">
       <c r="C96" s="15"/>
     </row>
-    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" ht="12">
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3" ht="12">
       <c r="C98" s="15"/>
     </row>
   </sheetData>
@@ -12137,7 +11829,6 @@
     <sortCondition descending="1" ref="U8"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="C69:Q69"/>
     <mergeCell ref="C68:Q68"/>
     <mergeCell ref="C72:Q72"/>
     <mergeCell ref="C2:U2"/>
@@ -12154,6 +11845,7 @@
     <mergeCell ref="C74:Q74"/>
     <mergeCell ref="B67:Q67"/>
     <mergeCell ref="C70:Q70"/>
+    <mergeCell ref="C69:Q69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12175,7 +11867,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK22"/>
@@ -12184,55 +11876,55 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="22"/>
-    <col min="2" max="2" width="19.140625" style="22" customWidth="1"/>
-    <col min="3" max="5" width="13.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.7109375" style="22" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="26" width="9.7109375" style="22" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="9.42578125" style="22" customWidth="1"/>
-    <col min="33" max="33" width="10.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="34" max="45" width="10.85546875" style="22" customWidth="1"/>
-    <col min="46" max="46" width="9.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="47" max="50" width="9.42578125" style="22" customWidth="1"/>
-    <col min="51" max="55" width="9.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="9.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.85546875" style="22" customWidth="1"/>
-    <col min="65" max="65" width="9.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="22"/>
+    <col min="2" max="2" width="19.1640625" style="22" customWidth="1"/>
+    <col min="3" max="5" width="13.1640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.6640625" style="22" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="9.6640625" style="22" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="9.5" style="22" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="34" max="45" width="10.83203125" style="22" customWidth="1"/>
+    <col min="46" max="46" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="47" max="50" width="9.5" style="22" customWidth="1"/>
+    <col min="51" max="55" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.83203125" style="22" customWidth="1"/>
+    <col min="65" max="65" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="13" style="22" customWidth="1"/>
-    <col min="68" max="70" width="9.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="72" max="74" width="10.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="9.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.42578125" style="22" customWidth="1"/>
-    <col min="78" max="78" width="9.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="68" max="70" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="72" max="74" width="10.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.5" style="22" customWidth="1"/>
+    <col min="78" max="78" width="9.5" style="22" bestFit="1" customWidth="1"/>
     <col min="79" max="82" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.85546875" style="22" customWidth="1"/>
-    <col min="85" max="85" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.83203125" style="22" customWidth="1"/>
+    <col min="85" max="85" width="9.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="10.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="88" max="96" width="10.85546875" style="22" customWidth="1"/>
+    <col min="87" max="87" width="10.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="88" max="96" width="10.83203125" style="22" customWidth="1"/>
     <col min="97" max="97" width="12" style="22" customWidth="1"/>
-    <col min="98" max="16384" width="8.85546875" style="22"/>
+    <col min="98" max="16384" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:63" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="13" thickBot="1"/>
+    <row r="2" spans="1:63" s="23" customFormat="1" ht="16" thickBot="1">
       <c r="B2" s="174" t="s">
         <v>26</v>
       </c>
@@ -12298,7 +11990,7 @@
       <c r="BJ2" s="22"/>
       <c r="BK2" s="133"/>
     </row>
-    <row r="3" spans="1:63" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="49" thickBot="1">
       <c r="A3" s="113"/>
       <c r="B3" s="144" t="s">
         <v>7</v>
@@ -12484,7 +12176,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63">
       <c r="A4" s="113"/>
       <c r="B4" s="40">
         <v>1999</v>
@@ -12552,7 +12244,7 @@
       <c r="BI4" s="51"/>
       <c r="BJ4" s="145"/>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63">
       <c r="A5" s="113"/>
       <c r="B5" s="120">
         <v>2000</v>
@@ -12622,7 +12314,7 @@
       <c r="BI5" s="52"/>
       <c r="BJ5" s="146"/>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63">
       <c r="A6" s="113"/>
       <c r="B6" s="120">
         <v>2001</v>
@@ -12692,7 +12384,7 @@
       <c r="BI6" s="52"/>
       <c r="BJ6" s="146"/>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63">
       <c r="A7" s="113"/>
       <c r="B7" s="120">
         <v>2002</v>
@@ -12764,7 +12456,7 @@
       <c r="BI7" s="52"/>
       <c r="BJ7" s="146"/>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63">
       <c r="A8" s="113"/>
       <c r="B8" s="120">
         <v>2003</v>
@@ -12836,7 +12528,7 @@
       <c r="BI8" s="52"/>
       <c r="BJ8" s="146"/>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63">
       <c r="A9" s="113"/>
       <c r="B9" s="120">
         <v>2004</v>
@@ -12912,7 +12604,7 @@
       <c r="BI9" s="52"/>
       <c r="BJ9" s="146"/>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63">
       <c r="A10" s="113"/>
       <c r="B10" s="120">
         <v>2005</v>
@@ -12994,7 +12686,7 @@
       <c r="BI10" s="52"/>
       <c r="BJ10" s="146"/>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63">
       <c r="A11" s="113"/>
       <c r="B11" s="120">
         <v>2006</v>
@@ -13080,7 +12772,7 @@
       <c r="BI11" s="52"/>
       <c r="BJ11" s="146"/>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63">
       <c r="A12" s="113"/>
       <c r="B12" s="120">
         <v>2007</v>
@@ -13174,7 +12866,7 @@
       <c r="BI12" s="52"/>
       <c r="BJ12" s="146"/>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63">
       <c r="A13" s="113"/>
       <c r="B13" s="120">
         <v>2008</v>
@@ -13278,7 +12970,7 @@
       <c r="BI13" s="52"/>
       <c r="BJ13" s="146"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63">
       <c r="A14" s="113"/>
       <c r="B14" s="120">
         <v>2009</v>
@@ -13392,7 +13084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63">
       <c r="A15" s="113"/>
       <c r="B15" s="120">
         <v>2010</v>
@@ -13522,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63">
       <c r="A16" s="113"/>
       <c r="B16" s="41">
         <v>2011</v>
@@ -13666,7 +13358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:62">
       <c r="A17" s="113"/>
       <c r="B17" s="41">
         <v>2012</v>
@@ -13832,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:62">
       <c r="A18" s="113"/>
       <c r="B18" s="41">
         <v>2013</v>
@@ -14010,7 +13702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:62">
       <c r="A19" s="113"/>
       <c r="B19" s="120">
         <v>2014</v>
@@ -14192,7 +13884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="13" thickBot="1">
       <c r="B20" s="114">
         <v>2015</v>
       </c>
@@ -14377,7 +14069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:62">
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
